--- a/PT.xlsx
+++ b/PT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="26">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -481,135 +481,152 @@
       </c>
       <c r="F24" s="0"/>
       <c r="G24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="H24" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="1">
+      <c r="H25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="1">
         <v>45953.0</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B26" t="s" s="0">
         <v>16</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E26" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="0"/>
-      <c r="G26" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B27" t="n" s="0">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n" s="0">
         <v>44.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n" s="1">
+    <row r="29">
+      <c r="A29" t="n" s="1">
         <v>45957.0</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B29" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F29" s="0"/>
-      <c r="G29" t="s" s="0">
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="H29" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I29" s="0"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="1">
-        <v>45958.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>15</v>
-      </c>
+      <c r="H30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E31" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="0"/>
-      <c r="G31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="1">
+        <v>45965.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H31" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I31" s="0"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B32" t="n" s="0">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="1">
-        <v>45965.0</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>15</v>
-      </c>
+      <c r="H33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
@@ -629,7 +646,7 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s" s="0">
         <v>20</v>
@@ -638,44 +655,44 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E35" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F35" s="0"/>
-      <c r="G35" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I35" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B36" t="n" s="0">
-        <v>46.0</v>
+      <c r="A36" t="n" s="1">
+        <v>45971.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="1">
-        <v>45971.0</v>
+      <c r="A37" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
@@ -695,7 +712,7 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s" s="0">
         <v>20</v>
@@ -704,118 +721,118 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E39" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="0"/>
-      <c r="G39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="1">
+        <v>45978.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="H39" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I39" s="0"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n" s="0">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="1">
-        <v>45978.0</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="H41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>17</v>
+      <c r="A42" t="n" s="1">
+        <v>45981.0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E42" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F42" s="0"/>
-      <c r="G42" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I42" s="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="1">
-        <v>45981.0</v>
+      <c r="A43" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>16</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E44" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="1">
+        <v>45988.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H44" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B45" t="n" s="0">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="1">
-        <v>45988.0</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>16</v>
-      </c>
+      <c r="H46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
@@ -835,7 +852,7 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>20</v>
@@ -844,83 +861,83 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F48" s="0"/>
-      <c r="G48" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I48" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B49" t="n" s="0">
-        <v>49.0</v>
+      <c r="A49" t="n" s="1">
+        <v>45995.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="1">
-        <v>45995.0</v>
+      <c r="A50" t="s" s="0">
+        <v>24</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>16</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E51" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I51" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n" s="0">
-        <v>51.0</v>
+      <c r="A52" t="n" s="1">
+        <v>46006.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="1">
-        <v>46006.0</v>
+      <c r="A53" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
@@ -933,44 +950,19 @@
         <v>18</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>20</v>
       </c>
       <c r="I54" s="0"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E55" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F55" s="0"/>
-      <c r="G55" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I55" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/PT.xlsx
+++ b/PT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="37">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -26,21 +26,27 @@
     <t>PT</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>U3-110</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>TR - C (KRTX9AA1)</t>
+  </si>
+  <si>
+    <t>KRTX9AA1</t>
+  </si>
+  <si>
     <t>7:45</t>
   </si>
   <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>TR - C (KRTX9AA1)</t>
-  </si>
-  <si>
-    <t>KRTX9AA1</t>
-  </si>
-  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -56,34 +62,61 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U2-119</t>
+  </si>
+  <si>
     <t>TYPE_TD</t>
   </si>
   <si>
     <t>mardi</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>TR - TP (KRTX9AA1) (CT/PT)</t>
+  </si>
+  <si>
+    <t>CT/PT</t>
+  </si>
+  <si>
+    <t>U3-216</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_TP</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>U3-204</t>
+  </si>
+  <si>
+    <t>U3-205</t>
+  </si>
+  <si>
+    <t>U3-215</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
+    <t>U3-307</t>
+  </si>
+  <si>
+    <t>U3-206</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>TR - TP (KRTX9AA1) (CT/PT)</t>
-  </si>
-  <si>
-    <t>CT/PT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_TP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>TR (KRTX9AA1)</t>
@@ -170,12 +203,14 @@
         <v>4</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -184,29 +219,31 @@
         <v>45912.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -228,24 +265,26 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -254,29 +293,31 @@
         <v>45917.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -293,29 +334,31 @@
         <v>45930.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -324,472 +367,530 @@
         <v>0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>45946.0</v>
+        <v>45950.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
-      <c r="G16" t="s" s="0">
+      <c r="F16" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n" s="0">
-        <v>43.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>45950.0</v>
+        <v>45951.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>24</v>
+      </c>
       <c r="H19" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="H20" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>45951.0</v>
+        <v>45952.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F22" s="0"/>
+      <c r="F22" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="G22" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="1">
-        <v>45952.0</v>
+      <c r="A23" t="s" s="0">
+        <v>21</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>17</v>
+      <c r="A24" t="n" s="1">
+        <v>45954.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E24" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="0"/>
-      <c r="G24" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I24" s="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F25" s="0"/>
+      <c r="F25" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="G25" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="1">
-        <v>45953.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>16</v>
+      <c r="A26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>44.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>17</v>
+      <c r="A27" t="n" s="1">
+        <v>45957.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E27" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I27" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B28" t="n" s="0">
-        <v>44.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G28" s="0"/>
+      <c r="H28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="1">
-        <v>45957.0</v>
+      <c r="A29" t="s" s="0">
+        <v>21</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E30" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="0"/>
-      <c r="G30" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I30" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B31" t="n" s="0">
-        <v>45.0</v>
+      <c r="A31" t="n" s="1">
+        <v>45964.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="1">
-        <v>45965.0</v>
+      <c r="A32" t="s" s="0">
+        <v>21</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F33" s="0"/>
+      <c r="F33" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="G33" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E34" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F34" s="0"/>
-      <c r="G34" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I34" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B35" t="n" s="0">
-        <v>46.0</v>
+      <c r="A35" t="n" s="1">
+        <v>45971.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="1">
-        <v>45971.0</v>
+      <c r="A36" t="s" s="0">
+        <v>21</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F37" s="0"/>
+      <c r="F37" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="G37" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="1">
+        <v>45978.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="1">
+        <v>45981.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E38" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="0"/>
-      <c r="G38" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n" s="0">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="1">
-        <v>45978.0</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E41" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="0"/>
-      <c r="G41" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="1">
-        <v>45981.0</v>
-      </c>
       <c r="B42" t="s" s="0">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G42" s="0"/>
+      <c r="H42" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I43" s="0"/>
     </row>
@@ -806,56 +907,56 @@
         <v>45988.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E47" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -872,29 +973,31 @@
         <v>45995.0</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F50" s="0"/>
+      <c r="F50" t="s" s="0">
+        <v>30</v>
+      </c>
       <c r="G50" s="0"/>
       <c r="H50" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I50" s="0"/>
     </row>
@@ -916,51 +1019,51 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I54" s="0"/>
     </row>

--- a/PT.xlsx
+++ b/PT.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="31">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>CPO (KINX6AA1)</t>
@@ -47,28 +47,25 @@
     <t>TYPE_PROJET</t>
   </si>
   <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>lundi</t>
   </si>
   <si>
-    <t>15:45</t>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Inf indus (KUPT6AB1) (TG)</t>
+  </si>
+  <si>
+    <t>KUPT6AB1</t>
   </si>
   <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>Inf indus (KUPT6AB1) (TG)</t>
-  </si>
-  <si>
-    <t>KUPT6AB1</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
   <si>
     <t>Inf indus (KUPT6AB1) (PL)</t>
@@ -170,7 +167,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -207,7 +204,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
@@ -244,7 +241,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44968.0</v>
+        <v>46064.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>1</v>
@@ -283,7 +280,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44977.0</v>
+        <v>46073.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>11</v>
@@ -345,7 +342,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44994.0</v>
+        <v>46090.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>13</v>
@@ -374,7 +371,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>14</v>
@@ -405,7 +402,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>1</v>
@@ -444,7 +441,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>13</v>
@@ -475,7 +472,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>17</v>
@@ -512,7 +509,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>14</v>
@@ -543,7 +540,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>17</v>
@@ -558,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>2.0</v>
@@ -574,7 +571,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>11</v>
@@ -613,7 +610,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>1</v>
@@ -621,7 +618,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" t="s" s="0">
@@ -667,14 +664,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="E37" t="n" s="0">
         <v>2.0</v>
@@ -690,7 +687,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>17</v>
@@ -698,7 +695,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" t="s" s="0">
@@ -729,7 +726,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>14</v>
@@ -737,7 +734,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" t="s" s="0">
@@ -760,11 +757,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>12</v>
@@ -783,7 +780,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>45024.0</v>
+        <v>46120.0</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>1</v>
@@ -791,7 +788,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" t="s" s="0">
@@ -814,7 +811,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" t="s" s="0">
@@ -837,7 +834,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>17</v>
@@ -845,7 +842,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" t="s" s="0">
@@ -868,11 +865,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>12</v>
@@ -891,14 +888,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="E50" t="n" s="0">
         <v>2.0</v>
@@ -922,7 +919,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="1">
-        <v>45029.0</v>
+        <v>46125.0</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>13</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" t="s" s="0">
@@ -953,14 +950,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>2.0</v>
@@ -976,7 +973,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>14</v>
@@ -984,11 +981,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>8</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>1</v>
@@ -1015,14 +1012,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" t="n" s="0">
         <v>2.0</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>17</v>
@@ -1046,11 +1043,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>8</v>
@@ -1069,14 +1066,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="D61" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="E61" t="n" s="0">
         <v>2.0</v>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1">
-        <v>45033.0</v>
+        <v>46129.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>11</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="0"/>
       <c r="C63" t="s" s="0">
@@ -1131,7 +1128,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n" s="1">
-        <v>45036.0</v>
+        <v>46132.0</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>13</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="0"/>
       <c r="C66" t="s" s="0">
@@ -1162,11 +1159,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="0"/>
       <c r="C67" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>12</v>
@@ -1185,7 +1182,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>1</v>
@@ -1193,11 +1190,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="0"/>
       <c r="C69" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s" s="0">
         <v>8</v>
@@ -1216,11 +1213,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="0"/>
       <c r="C70" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>12</v>
@@ -1239,7 +1236,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>17</v>
@@ -1247,11 +1244,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s" s="0">
         <v>8</v>
@@ -1270,11 +1267,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s" s="0">
         <v>12</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>11</v>
@@ -1301,11 +1298,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s" s="0">
         <v>8</v>
@@ -1324,11 +1321,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="0"/>
       <c r="C76" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>12</v>
@@ -1355,7 +1352,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>13</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="0"/>
       <c r="C79" t="s" s="0">
@@ -1384,7 +1381,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="0"/>
       <c r="C80" t="s" s="0">
@@ -1407,7 +1404,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>17</v>
@@ -1415,11 +1412,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="0"/>
       <c r="C82" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>12</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>14</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" s="0"/>
       <c r="C85" t="s" s="0">
@@ -1477,14 +1474,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" s="0"/>
       <c r="C86" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86" t="n" s="0">
         <v>2.0</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>13</v>
@@ -1516,11 +1513,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="0"/>
       <c r="C89" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s" s="0">
         <v>4</v>
@@ -1539,14 +1536,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="0"/>
       <c r="C90" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90" t="n" s="0">
         <v>2.0</v>
